--- a/v4/v4_standard/v4_missing_value_regression.xlsx
+++ b/v4/v4_standard/v4_missing_value_regression.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\master\ensemble_github\v3+\analysis_data\standard_v3_missing_value\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\master\ensemble_github\experimental_data\v4\v4_standard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D891C1FC-8914-4686-A1BB-4CEDED3C546A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A5EB9B-CAED-4807-9600-94DA39375454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2326,7 +2326,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2342,6 +2342,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2382,7 +2388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2393,12 +2399,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2703,8 +2711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2731,10 +2739,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>751</v>
       </c>
-      <c r="D1" s="6"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3116,7 +3124,7 @@
       <c r="C11" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="8" t="s">
         <v>94</v>
       </c>
       <c r="E11" s="3"/>
@@ -3158,7 +3166,7 @@
       <c r="C12" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="8" t="s">
         <v>104</v>
       </c>
       <c r="E12" s="3"/>
@@ -3200,7 +3208,7 @@
       <c r="C13" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="8" t="s">
         <v>114</v>
       </c>
       <c r="E13" s="3"/>
@@ -3242,7 +3250,7 @@
       <c r="C14" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="8" t="s">
         <v>124</v>
       </c>
       <c r="E14" s="3"/>
@@ -3284,7 +3292,7 @@
       <c r="C15" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E15" s="3"/>
@@ -3326,7 +3334,7 @@
       <c r="C16" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="8" t="s">
         <v>144</v>
       </c>
       <c r="E16" s="3"/>
@@ -3772,7 +3780,7 @@
       <c r="C27" t="s">
         <v>228</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="8" t="s">
         <v>229</v>
       </c>
       <c r="E27" s="3"/>
@@ -3786,7 +3794,7 @@
       <c r="I27" t="s">
         <v>232</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="8" t="s">
         <v>233</v>
       </c>
       <c r="K27" s="3"/>
@@ -3814,7 +3822,7 @@
       <c r="C28" t="s">
         <v>238</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="9" t="s">
         <v>239</v>
       </c>
       <c r="E28" s="2"/>
@@ -3828,7 +3836,7 @@
       <c r="I28" t="s">
         <v>242</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="8" t="s">
         <v>243</v>
       </c>
       <c r="K28" s="3"/>
@@ -3856,7 +3864,7 @@
       <c r="C29" t="s">
         <v>248</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="8" t="s">
         <v>249</v>
       </c>
       <c r="E29" s="3"/>
@@ -3870,7 +3878,7 @@
       <c r="I29" t="s">
         <v>252</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="9" t="s">
         <v>253</v>
       </c>
       <c r="K29" s="2"/>
@@ -3898,7 +3906,7 @@
       <c r="C30" t="s">
         <v>258</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="8" t="s">
         <v>259</v>
       </c>
       <c r="E30" s="3"/>
@@ -3912,7 +3920,7 @@
       <c r="I30" t="s">
         <v>262</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="8" t="s">
         <v>263</v>
       </c>
       <c r="K30" s="3"/>
@@ -3940,7 +3948,7 @@
       <c r="C31" t="s">
         <v>268</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="8" t="s">
         <v>269</v>
       </c>
       <c r="E31" s="3"/>
@@ -3954,7 +3962,7 @@
       <c r="I31" t="s">
         <v>272</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="8" t="s">
         <v>273</v>
       </c>
       <c r="K31" s="3"/>
@@ -3982,7 +3990,7 @@
       <c r="C32" t="s">
         <v>278</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="8" t="s">
         <v>279</v>
       </c>
       <c r="E32" s="3"/>
@@ -3996,7 +4004,7 @@
       <c r="I32" t="s">
         <v>282</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="8" t="s">
         <v>283</v>
       </c>
       <c r="K32" s="3"/>
@@ -4100,7 +4108,7 @@
       <c r="C35" t="s">
         <v>294</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="8" t="s">
         <v>295</v>
       </c>
       <c r="E35" s="3"/>
@@ -4142,7 +4150,7 @@
       <c r="C36" t="s">
         <v>304</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="8" t="s">
         <v>305</v>
       </c>
       <c r="E36" s="3"/>
@@ -4184,7 +4192,7 @@
       <c r="C37" t="s">
         <v>314</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="8" t="s">
         <v>315</v>
       </c>
       <c r="E37" s="3"/>
@@ -4226,7 +4234,7 @@
       <c r="C38" t="s">
         <v>324</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="8" t="s">
         <v>325</v>
       </c>
       <c r="E38" s="3"/>
@@ -4268,7 +4276,7 @@
       <c r="C39" t="s">
         <v>334</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="9" t="s">
         <v>335</v>
       </c>
       <c r="E39" s="2"/>
@@ -4310,7 +4318,7 @@
       <c r="C40" t="s">
         <v>344</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="8" t="s">
         <v>345</v>
       </c>
       <c r="E40" s="3"/>
@@ -4435,7 +4443,7 @@
       <c r="F43" t="s">
         <v>362</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="8" t="s">
         <v>363</v>
       </c>
       <c r="H43" s="3"/>
@@ -4477,7 +4485,7 @@
       <c r="F44" t="s">
         <v>372</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G44" s="8" t="s">
         <v>373</v>
       </c>
       <c r="H44" s="3"/>
@@ -4519,7 +4527,7 @@
       <c r="F45" t="s">
         <v>382</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="8" t="s">
         <v>383</v>
       </c>
       <c r="H45" s="3"/>
@@ -4561,7 +4569,7 @@
       <c r="F46" t="s">
         <v>392</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G46" s="8" t="s">
         <v>393</v>
       </c>
       <c r="H46" s="3"/>
@@ -4603,7 +4611,7 @@
       <c r="F47" t="s">
         <v>402</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" s="9" t="s">
         <v>403</v>
       </c>
       <c r="H47" s="2"/>
@@ -4645,7 +4653,7 @@
       <c r="F48" t="s">
         <v>412</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G48" s="8" t="s">
         <v>413</v>
       </c>
       <c r="H48" s="3"/>
@@ -5412,7 +5420,7 @@
       <c r="C67" t="s">
         <v>553</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="8" t="s">
         <v>554</v>
       </c>
       <c r="E67" s="3"/>
@@ -5454,7 +5462,7 @@
       <c r="C68" t="s">
         <v>563</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="8" t="s">
         <v>564</v>
       </c>
       <c r="E68" s="3"/>
@@ -5496,7 +5504,7 @@
       <c r="C69" t="s">
         <v>573</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="8" t="s">
         <v>574</v>
       </c>
       <c r="E69" s="3"/>
@@ -5538,7 +5546,7 @@
       <c r="C70" t="s">
         <v>583</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="8" t="s">
         <v>584</v>
       </c>
       <c r="E70" s="3"/>
@@ -5580,7 +5588,7 @@
       <c r="C71" t="s">
         <v>593</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="8" t="s">
         <v>594</v>
       </c>
       <c r="E71" s="3"/>
@@ -5622,7 +5630,7 @@
       <c r="C72" t="s">
         <v>603</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="8" t="s">
         <v>604</v>
       </c>
       <c r="E72" s="3"/>
@@ -5740,14 +5748,14 @@
       <c r="C75" t="s">
         <v>619</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="8" t="s">
         <v>620</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" t="s">
         <v>621</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="G75" s="8" t="s">
         <v>622</v>
       </c>
       <c r="H75" s="3"/>
@@ -5782,14 +5790,14 @@
       <c r="C76" t="s">
         <v>629</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="8" t="s">
         <v>630</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" t="s">
         <v>631</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="G76" s="8" t="s">
         <v>632</v>
       </c>
       <c r="H76" s="3"/>
@@ -5824,14 +5832,14 @@
       <c r="C77" t="s">
         <v>639</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="8" t="s">
         <v>640</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" t="s">
         <v>641</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="G77" s="9" t="s">
         <v>642</v>
       </c>
       <c r="H77" s="2"/>
@@ -5866,14 +5874,14 @@
       <c r="C78" t="s">
         <v>649</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="8" t="s">
         <v>650</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" t="s">
         <v>651</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="G78" s="8" t="s">
         <v>652</v>
       </c>
       <c r="H78" s="3"/>
@@ -5908,14 +5916,14 @@
       <c r="C79" t="s">
         <v>659</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="8" t="s">
         <v>660</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" t="s">
         <v>661</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="G79" s="8" t="s">
         <v>662</v>
       </c>
       <c r="H79" s="3"/>
@@ -5950,14 +5958,14 @@
       <c r="C80" t="s">
         <v>669</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="8" t="s">
         <v>670</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" t="s">
         <v>671</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="G80" s="8" t="s">
         <v>672</v>
       </c>
       <c r="H80" s="3"/>
@@ -6075,14 +6083,14 @@
       <c r="F83" t="s">
         <v>687</v>
       </c>
-      <c r="G83" s="3" t="s">
+      <c r="G83" s="8" t="s">
         <v>688</v>
       </c>
       <c r="H83" s="3"/>
       <c r="I83" t="s">
         <v>689</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="J83" s="8" t="s">
         <v>690</v>
       </c>
       <c r="K83" s="3"/>
@@ -6117,14 +6125,14 @@
       <c r="F84" t="s">
         <v>697</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="G84" s="8" t="s">
         <v>698</v>
       </c>
       <c r="H84" s="3"/>
       <c r="I84" t="s">
         <v>699</v>
       </c>
-      <c r="J84" s="3" t="s">
+      <c r="J84" s="8" t="s">
         <v>700</v>
       </c>
       <c r="K84" s="3"/>
@@ -6159,14 +6167,14 @@
       <c r="F85" t="s">
         <v>707</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="G85" s="8" t="s">
         <v>708</v>
       </c>
       <c r="H85" s="3"/>
       <c r="I85" t="s">
         <v>709</v>
       </c>
-      <c r="J85" s="3" t="s">
+      <c r="J85" s="8" t="s">
         <v>710</v>
       </c>
       <c r="K85" s="3"/>
@@ -6201,14 +6209,14 @@
       <c r="F86" t="s">
         <v>717</v>
       </c>
-      <c r="G86" s="3" t="s">
+      <c r="G86" s="8" t="s">
         <v>718</v>
       </c>
       <c r="H86" s="3"/>
       <c r="I86" t="s">
         <v>719</v>
       </c>
-      <c r="J86" s="2" t="s">
+      <c r="J86" s="9" t="s">
         <v>720</v>
       </c>
       <c r="K86" s="2"/>
@@ -6243,14 +6251,14 @@
       <c r="F87" t="s">
         <v>727</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="G87" s="9" t="s">
         <v>728</v>
       </c>
       <c r="H87" s="2"/>
       <c r="I87" t="s">
         <v>729</v>
       </c>
-      <c r="J87" s="3" t="s">
+      <c r="J87" s="8" t="s">
         <v>730</v>
       </c>
       <c r="K87" s="3"/>
@@ -6285,14 +6293,14 @@
       <c r="F88" t="s">
         <v>737</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="G88" s="8" t="s">
         <v>738</v>
       </c>
       <c r="H88" s="3"/>
       <c r="I88" t="s">
         <v>739</v>
       </c>
-      <c r="J88" s="3" t="s">
+      <c r="J88" s="8" t="s">
         <v>740</v>
       </c>
       <c r="K88" s="3"/>
